--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_17_26.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_17_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1643025.691102501</v>
+        <v>1640773.611391294</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283195</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>138.8437204680922</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,13 +668,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -710,7 +710,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>191.0686326199067</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -719,10 +719,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>9.90890202398988</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>173.3852353535188</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>67.37512149318685</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,13 +947,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>111.6770057037263</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>225.4855267871096</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1117,7 +1117,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>120.6353666620237</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>324.6920606799745</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1184,7 +1184,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>112.0789181391344</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,25 +1291,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>79.91157841034465</v>
+        <v>63.13355668550192</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1345,13 +1345,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1771,13 +1771,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>35.41770597126702</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>147.2606364488705</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="21">
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>69.82863813027318</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,16 +2479,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>118.6708469029954</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2612,7 +2612,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>28.68281686619834</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182141</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833647</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272864</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2959,13 +2959,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>200.8913644505277</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3038,10 +3038,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3196,16 +3196,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922675</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>41.0268615655039</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>19.91555826188928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>120.787132650395</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3433,16 +3433,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>26.13627195705896</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.40545032729</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,16 +3667,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>41.02686156550126</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3904,13 +3904,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3958,7 +3958,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>212.8988206105705</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>131.6329842920048</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2047.583838282732</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C2" t="n">
-        <v>1678.62132134232</v>
+        <v>1168.124113652745</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4352,28 +4352,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3022.316534328279</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2768.786057602115</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2437.723170258544</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2437.723170258544</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2437.723170258544</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2047.583838282732</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>477.7578170212613</v>
+        <v>372.8549345700854</v>
       </c>
       <c r="C4" t="n">
-        <v>477.7578170212613</v>
+        <v>362.8459426266613</v>
       </c>
       <c r="D4" t="n">
-        <v>477.7578170212613</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="E4" t="n">
-        <v>477.7578170212613</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959802</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4513,25 +4513,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T4" t="n">
-        <v>1470.641605305656</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U4" t="n">
-        <v>1470.641605305656</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V4" t="n">
-        <v>1215.957117099769</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="W4" t="n">
-        <v>926.5399470628088</v>
+        <v>782.4929502983425</v>
       </c>
       <c r="X4" t="n">
-        <v>698.5503961647914</v>
+        <v>554.5033994003252</v>
       </c>
       <c r="Y4" t="n">
-        <v>477.7578170212613</v>
+        <v>554.5033994003252</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>921.7704558796261</v>
+        <v>1530.167618932618</v>
       </c>
       <c r="C5" t="n">
-        <v>552.8079389392144</v>
+        <v>1530.167618932618</v>
       </c>
       <c r="D5" t="n">
-        <v>194.5422403324639</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E5" t="n">
-        <v>194.5422403324639</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F5" t="n">
-        <v>187.5967395832604</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>176.564693468661</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4601,16 +4601,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2643.001872527934</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2290.233217257819</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>1916.76745899674</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943748</v>
+        <v>1916.76745899674</v>
       </c>
     </row>
     <row r="6">
@@ -4620,43 +4620,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
         <v>2096.912393410638</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.51211643218342</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="C7" t="n">
-        <v>66.51211643218342</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218342</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
         <v>66.51211643218342</v>
@@ -4723,16 +4723,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1615.697475415546</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1387.934317044728</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>1133.249828838841</v>
       </c>
       <c r="W7" t="n">
-        <v>590.8070661251691</v>
+        <v>843.8326588018809</v>
       </c>
       <c r="X7" t="n">
-        <v>468.9531604059532</v>
+        <v>615.8431079038636</v>
       </c>
       <c r="Y7" t="n">
-        <v>248.1605812624231</v>
+        <v>395.0505287603335</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1514.348043559526</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="C8" t="n">
-        <v>1186.376265094905</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>828.1105664881545</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881545</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4802,16 +4802,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066532</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796417</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>1904.487375535337</v>
+        <v>1958.764357757271</v>
       </c>
       <c r="Y8" t="n">
-        <v>1514.348043559526</v>
+        <v>1958.764357757271</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158133</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>856.7165163051885</v>
+        <v>278.1964793938714</v>
       </c>
       <c r="C10" t="n">
-        <v>687.7803333772816</v>
+        <v>278.1964793938714</v>
       </c>
       <c r="D10" t="n">
-        <v>537.6636939649459</v>
+        <v>278.1964793938714</v>
       </c>
       <c r="E10" t="n">
-        <v>537.6636939649459</v>
+        <v>130.2833858114783</v>
       </c>
       <c r="F10" t="n">
-        <v>390.7737464670355</v>
+        <v>130.2833858114783</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4993,19 +4993,19 @@
         <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1513.842048484845</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V10" t="n">
-        <v>1259.157560278958</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W10" t="n">
-        <v>1259.157560278958</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X10" t="n">
-        <v>1259.157560278958</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="Y10" t="n">
-        <v>1038.364981135428</v>
+        <v>459.8449442241111</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,13 +5036,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332386</v>
@@ -5054,37 +5054,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>114.2598873597761</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797186</v>
+        <v>448.1846595309966</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>943.5102657467552</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438176</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5176,19 +5176,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797186</v>
@@ -5200,10 +5200,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111715</v>
@@ -5282,13 +5282,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,31 +5297,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,10 +5349,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5367,16 +5367,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1767.889897446606</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>727.9786782557277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>559.0424953278208</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>408.925855915485</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2411.187623003223</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2191.586158026164</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1902.510931370362</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1647.826443164475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1358.409273127515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1130.419722229497</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>909.6271430859674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5504,10 +5504,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5516,10 +5516,10 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.55866301478</v>
@@ -5528,10 +5528,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N18" t="n">
-        <v>2283.159972732779</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2283.159972732779</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2298.214965955139</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2078.61350097808</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1789.538274322277</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1789.538274322277</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1500.121104285317</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1272.131553387299</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,7 +5762,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>740.5562989961526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1965.532750177311</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
         <v>261.0127623330919</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.4026036630049</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5984,25 +5984,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,22 +6063,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>579.1554649516144</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
         <v>1859.536823237711</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>527.7722521572603</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6206,28 +6206,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,37 +6236,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L27" t="n">
-        <v>579.1554649516144</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>530.3315352860773</v>
+        <v>194.8007783998269</v>
       </c>
       <c r="E28" t="n">
-        <v>382.4184417036842</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855606</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199804</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.556199993917</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1327.139029956957</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1099.149479058939</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>878.3568999154091</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6455,7 +6455,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192548</v>
@@ -6464,16 +6464,16 @@
         <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6537,25 +6537,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>579.1554649516144</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>1103.652278938886</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>721.7774158311364</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>552.8412329032295</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993915</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1327.139029956954</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1124.218459804906</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>903.4258806613761</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6677,31 +6677,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,37 +6710,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,28 +6771,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M33" t="n">
-        <v>1307.627092998424</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>916.3099000622266</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>747.3737171343197</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>597.2570777219839</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>449.3439841395908</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>302.4540366416804</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>135.2579373565617</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>135.2579373565617</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797728</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T34" t="n">
-        <v>2379.917379832663</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U34" t="n">
-        <v>2090.842153176861</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V34" t="n">
-        <v>1836.157664970974</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W34" t="n">
-        <v>1546.740494934014</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X34" t="n">
-        <v>1318.750944035996</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y34" t="n">
-        <v>1097.958364892466</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004712</v>
@@ -6923,40 +6923,40 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>1074.481071167373</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N36" t="n">
-        <v>1702.07903472198</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>2253.988764961267</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="C37" t="n">
-        <v>788.0191461778176</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D37" t="n">
-        <v>637.9025067654818</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>489.9894131830887</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2420.562808876161</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2420.562808876161</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2420.562808876161</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U37" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V37" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W37" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X37" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y37" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="38">
@@ -7163,19 +7163,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,10 +7184,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M39" t="n">
-        <v>1026.887310050512</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N39" t="n">
-        <v>1654.485273605118</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O39" t="n">
-        <v>2206.395003844405</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>916.3099000622252</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>747.3737171343183</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>597.2570777219826</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>449.3439841395895</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>302.4540366416791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>135.257937356559</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038329</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797731</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832662</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2379.917379832662</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2090.84215317686</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1836.157664970973</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1546.740494934012</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1318.750944035995</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1097.958364892465</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,46 +7385,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>429.5088224239596</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L42" t="n">
-        <v>924.8344286397185</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M42" t="n">
-        <v>1522.21291626627</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N42" t="n">
-        <v>1522.21291626627</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2296.093381168253</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>228.9331431646413</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>562.8579153358619</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>1058.183521551621</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M45" t="n">
-        <v>1655.562009178173</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N45" t="n">
-        <v>2283.159972732779</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
         <v>2283.159972732779</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>489.9894131830887</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851783</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823101</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631857025</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>145.6085800303776</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>33.76564955277411</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,19 +24124,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>110.0033420516641</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>62.35543909865108</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>29.94462611521701</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>151.1491633157389</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>46.4596884482327</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>144.5956654067404</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016463</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>24.81829093850945</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25084,16 +25084,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>40.23897475306162</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.45968844823241</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>46.45968844823282</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>40.23897475306271</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>99.2678512807226</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,10 +25597,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25792,19 +25792,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>73.62417772602055</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>154.8900140445862</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>898230.3070642164</v>
+        <v>898230.3070642161</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>898230.3070642164</v>
+        <v>898230.3070642161</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>898230.3070642164</v>
+        <v>898230.3070642161</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>898230.3070642164</v>
+        <v>898230.3070642161</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>898230.3070642164</v>
+        <v>898230.3070642161</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>898230.3070642162</v>
+        <v>898230.3070642164</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>898230.3070642164</v>
+        <v>898230.3070642162</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>898230.3070642164</v>
+        <v>898230.3070642161</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>898230.3070642164</v>
+        <v>898230.3070642162</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>898230.3070642164</v>
+        <v>898230.3070642162</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>898230.3070642164</v>
+        <v>898230.3070642162</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="E2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.2897985037</v>
       </c>
       <c r="F2" t="n">
         <v>524645.2897985039</v>
       </c>
       <c r="G2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="H2" t="n">
-        <v>524645.2897985037</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="I2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="J2" t="n">
         <v>524645.2897985039</v>
       </c>
       <c r="K2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="L2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985041</v>
       </c>
       <c r="M2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="N2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="O2" t="n">
         <v>524645.2897985039</v>
       </c>
-      <c r="O2" t="n">
-        <v>524645.2897985037</v>
-      </c>
       <c r="P2" t="n">
-        <v>524645.2897985037</v>
+        <v>524645.289798504</v>
       </c>
     </row>
     <row r="3">
@@ -26369,19 +26369,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551169</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.06702314486</v>
+        <v>90354.06702314482</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.0670231448</v>
+        <v>90354.06702314483</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.0670231448</v>
+        <v>90354.06702314482</v>
       </c>
       <c r="E4" t="n">
         <v>11167.03225179351</v>
@@ -26445,7 +26445,7 @@
         <v>11167.03225179351</v>
       </c>
       <c r="L4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="M4" t="n">
         <v>11167.03225179351</v>
@@ -26454,7 +26454,7 @@
         <v>11167.03225179351</v>
       </c>
       <c r="O4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="P4" t="n">
         <v>11167.03225179351</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-993355.6029003465</v>
+        <v>-993355.6029003463</v>
       </c>
       <c r="C6" t="n">
-        <v>335389.1428272461</v>
+        <v>335389.1428272465</v>
       </c>
       <c r="D6" t="n">
-        <v>335389.1428272463</v>
+        <v>335389.142827246</v>
       </c>
       <c r="E6" t="n">
-        <v>86943.2659154482</v>
+        <v>86908.5279900125</v>
       </c>
       <c r="F6" t="n">
-        <v>412355.7277228032</v>
+        <v>412320.9897973673</v>
       </c>
       <c r="G6" t="n">
-        <v>412355.7277228034</v>
+        <v>412320.9897973675</v>
       </c>
       <c r="H6" t="n">
-        <v>412355.727722803</v>
+        <v>412320.9897973675</v>
       </c>
       <c r="I6" t="n">
-        <v>412355.7277228032</v>
+        <v>412320.9897973676</v>
       </c>
       <c r="J6" t="n">
-        <v>194824.5253255257</v>
+        <v>194789.78740009</v>
       </c>
       <c r="K6" t="n">
-        <v>412355.7277228032</v>
+        <v>412320.9897973676</v>
       </c>
       <c r="L6" t="n">
-        <v>412355.7277228033</v>
+        <v>412320.9897973677</v>
       </c>
       <c r="M6" t="n">
-        <v>327300.6997872916</v>
+        <v>327265.9618618558</v>
       </c>
       <c r="N6" t="n">
-        <v>412355.7277228032</v>
+        <v>412320.9897973676</v>
       </c>
       <c r="O6" t="n">
-        <v>412355.7277228031</v>
+        <v>412320.9897973675</v>
       </c>
       <c r="P6" t="n">
-        <v>412355.7277228031</v>
+        <v>412320.9897973676</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26811,13 +26811,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26963,19 +26963,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973552</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>226.4291713029153</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,13 +27388,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>12.84933751971349</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,10 +27439,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>157.337919074638</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,13 +27549,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,13 +27585,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>46.16371392265043</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>227.2326428941336</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27673,7 +27673,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>216.0752527664086</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27792,7 +27792,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,13 +27822,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>60.72631141850329</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,7 +27837,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>105.0742887270135</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>40.58083109103308</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>257.6521825393346</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28011,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>86.11422984868358</v>
+        <v>102.8922515735263</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28065,13 +28065,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28503,7 +28503,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>-4.713266813875332e-12</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="21">
@@ -28968,7 +28968,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29332,7 +29332,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29436,7 +29436,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -29484,7 +29484,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -29515,7 +29515,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -29718,7 +29718,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -29758,10 +29758,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29919,7 +29919,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -29934,7 +29934,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>-2.163473208342858e-13</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30195,7 +30195,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30405,7 +30405,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>-1.508245380440106e-12</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,40 +31835,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>145.7021085929668</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32087,7 +32087,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>230.1272937575231</v>
+        <v>428.7353800421384</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32096,10 +32096,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32318,25 +32318,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>545.3845241768652</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>748.8168776781358</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32552,37 +32552,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>426.9501404413636</v>
       </c>
       <c r="O21" t="n">
-        <v>463.4318227833011</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32789,37 +32789,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>194.5189324111251</v>
       </c>
       <c r="M24" t="n">
-        <v>244.0266243181827</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>244.0266243181827</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>707.690770008913</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33263,37 +33263,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M30" t="n">
-        <v>671.9287955253226</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>377.6350660745949</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>502.5232631188761</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>290.6810969936921</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>163.4402738502014</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>198.5607970756955</v>
       </c>
       <c r="P39" t="n">
-        <v>211.5147800288493</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34129,34 +34129,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175661</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34211,37 +34211,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>520.337216085408</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>362.5355639238086</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>261.5336801130326</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>18.86448192630008</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35735,7 +35735,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>98.78558167418976</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35744,10 +35744,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,25 +35966,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>406.830144396991</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>617.4751655948025</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="O21" t="n">
-        <v>320.8355783388566</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>55.9645526312509</v>
       </c>
       <c r="M24" t="n">
-        <v>101.8925903961643</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>101.8925903961643</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>576.3490579255797</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M30" t="n">
-        <v>529.7947616033042</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>235.5010321525766</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>368.5488557045459</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191298</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>159.3393849103587</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>29.46586643587111</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,10 +37616,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37631,19 +37631,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>55.96455263125101</v>
       </c>
       <c r="P39" t="n">
-        <v>77.5403726145191</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096335</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>377.7409716409636</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>222.5537898377871</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>134.6960534463659</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
